--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samha\Desktop\theory test website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Harris\Documents\GitHub\drivingtheorywebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDA7D3C-829E-4165-9590-3EB2EB6391AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1765A2-7EEC-4413-92A8-114C4BEACBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{B4180E7B-239D-49A3-A60C-3051093EB6BC}"/>
+    <workbookView xWindow="28680" yWindow="2595" windowWidth="20730" windowHeight="11040" xr2:uid="{B4180E7B-239D-49A3-A60C-3051093EB6BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="190">
   <si>
     <t>diagram</t>
   </si>
@@ -303,6 +302,306 @@
   </si>
   <si>
     <t>while in an automatic car</t>
+  </si>
+  <si>
+    <t>Safety Margins</t>
+  </si>
+  <si>
+    <t>How do you ensure that your brakes are working properly after passing through flood water?</t>
+  </si>
+  <si>
+    <t>go slow and gently apply the brakes</t>
+  </si>
+  <si>
+    <t>avoid using the brakes for a while</t>
+  </si>
+  <si>
+    <t>accelerate to a high speed for a short amount of time</t>
+  </si>
+  <si>
+    <t>stop for at least half an hour until they are dry</t>
+  </si>
+  <si>
+    <t>When conditions are icy what part of the vehicle should you clear of ice and snow?</t>
+  </si>
+  <si>
+    <t>the windows</t>
+  </si>
+  <si>
+    <t>the bumber</t>
+  </si>
+  <si>
+    <t>the aerial</t>
+  </si>
+  <si>
+    <t>the roof</t>
+  </si>
+  <si>
+    <t>What light should you use when you're driving on a wet motorway and vehicles are throwing up surface spray?</t>
+  </si>
+  <si>
+    <t>sidelights</t>
+  </si>
+  <si>
+    <t>rear fog lights</t>
+  </si>
+  <si>
+    <t>dipped headlights</t>
+  </si>
+  <si>
+    <t>hazard warning lights</t>
+  </si>
+  <si>
+    <t>You're following a vehicle on a wet road. You stay a safe distance behind it, what should you do if a car over takes into the gap you've left?</t>
+  </si>
+  <si>
+    <t>drop back and regain a safe distance</t>
+  </si>
+  <si>
+    <t>try to overtake safely</t>
+  </si>
+  <si>
+    <t>flash your headlights to warn the driver</t>
+  </si>
+  <si>
+    <t>stay close to the vehicle until it moves on</t>
+  </si>
+  <si>
+    <t>You're following other vehicles in fog, you have your dipped headlights on, what else can you do to reduce the chances of a collision?</t>
+  </si>
+  <si>
+    <t>keep a safe distance from the car in front</t>
+  </si>
+  <si>
+    <t>keep up with the faster vehicles</t>
+  </si>
+  <si>
+    <t>use main beams instead</t>
+  </si>
+  <si>
+    <t>keep close to the vehicle in front</t>
+  </si>
+  <si>
+    <t>You approach a sharp bend in freezing conditions what should you do?</t>
+  </si>
+  <si>
+    <t>slow down gently</t>
+  </si>
+  <si>
+    <t>firmly use your footbrake</t>
+  </si>
+  <si>
+    <t>apply your parking brake</t>
+  </si>
+  <si>
+    <t>coast into the bend</t>
+  </si>
+  <si>
+    <t>How do you use your vehicle's engine as a brake?</t>
+  </si>
+  <si>
+    <t>change to a lower gear</t>
+  </si>
+  <si>
+    <t>change to a higher gear</t>
+  </si>
+  <si>
+    <t>selecting reverse</t>
+  </si>
+  <si>
+    <t>selecting neutral</t>
+  </si>
+  <si>
+    <t>What can happen when you coat for a long period of time? (driving in netural)</t>
+  </si>
+  <si>
+    <t>reduction in control</t>
+  </si>
+  <si>
+    <t>easier steering</t>
+  </si>
+  <si>
+    <t>improvement in control</t>
+  </si>
+  <si>
+    <t>increased fuel consumption</t>
+  </si>
+  <si>
+    <t>What should you do when parking your car facing down hill?</t>
+  </si>
+  <si>
+    <t>engage parking brake and steer towards the kerb</t>
+  </si>
+  <si>
+    <t>engage parking brake and steer away from the kerb</t>
+  </si>
+  <si>
+    <t>park close to the bumper of another car</t>
+  </si>
+  <si>
+    <t>park with 2 wheels on the kerb</t>
+  </si>
+  <si>
+    <t>What would indicate you're driving on an icy road?</t>
+  </si>
+  <si>
+    <t>less tyre noise</t>
+  </si>
+  <si>
+    <t>less wind noise</t>
+  </si>
+  <si>
+    <t>less transmission noise</t>
+  </si>
+  <si>
+    <t>less engine noise</t>
+  </si>
+  <si>
+    <t>What should you do when you approach a road hump in a built-up area?</t>
+  </si>
+  <si>
+    <t>check your mirror and slow down</t>
+  </si>
+  <si>
+    <t>stop and check both pavements</t>
+  </si>
+  <si>
+    <t>wait for any pedestrians to cross</t>
+  </si>
+  <si>
+    <t>move to the left-hand side of the road</t>
+  </si>
+  <si>
+    <t>Driving on an open road in dry weather, what distance should you keep from the vehicle in front of you?</t>
+  </si>
+  <si>
+    <t>2 second time hap</t>
+  </si>
+  <si>
+    <t>4 second time gap</t>
+  </si>
+  <si>
+    <t>one car length</t>
+  </si>
+  <si>
+    <t>2 car lengths</t>
+  </si>
+  <si>
+    <t>Where is your vehicle most likely to be affected by side winds?</t>
+  </si>
+  <si>
+    <t>on an open stretch of road</t>
+  </si>
+  <si>
+    <t>on narrow country lanes</t>
+  </si>
+  <si>
+    <t>on busy streets in a built up area</t>
+  </si>
+  <si>
+    <t>on a long, straight road</t>
+  </si>
+  <si>
+    <t>Why should you keep to the left as you approach a right-hand bend?</t>
+  </si>
+  <si>
+    <t>to improve you view of the road</t>
+  </si>
+  <si>
+    <t>let faster traffic overtake</t>
+  </si>
+  <si>
+    <t>be positioned safely if you skid</t>
+  </si>
+  <si>
+    <t>overcome the effect of the road's slope</t>
+  </si>
+  <si>
+    <t>You're travelling on the motorway, how can you lower the risk of a collision when the vehicle behind is following too closely?</t>
+  </si>
+  <si>
+    <t>increase your distance to the vehicle in front</t>
+  </si>
+  <si>
+    <t>brake sharply</t>
+  </si>
+  <si>
+    <t>switch on your hazard warning lights</t>
+  </si>
+  <si>
+    <t>move onto the hard shoulder and stop</t>
+  </si>
+  <si>
+    <t>What requires extra care when you're driving or riding in windy conditions?</t>
+  </si>
+  <si>
+    <t>passing pedal cyclists</t>
+  </si>
+  <si>
+    <t>turning into a narrow road</t>
+  </si>
+  <si>
+    <t>moving off a hill</t>
+  </si>
+  <si>
+    <t>using the brakes</t>
+  </si>
+  <si>
+    <t>You're about to go down a steep hill. What should you do to control the speed of your vehicle?</t>
+  </si>
+  <si>
+    <t>select a low gear and use the brakes</t>
+  </si>
+  <si>
+    <t>select a low gear but don't use the brakes</t>
+  </si>
+  <si>
+    <t>select a high gear and use the brakes</t>
+  </si>
+  <si>
+    <t>select a high gear but don't use the brakes</t>
+  </si>
+  <si>
+    <t>What is the main cause of skidding?</t>
+  </si>
+  <si>
+    <t>the vehicle</t>
+  </si>
+  <si>
+    <t>the road</t>
+  </si>
+  <si>
+    <t>the weather</t>
+  </si>
+  <si>
+    <t>the driver</t>
+  </si>
+  <si>
+    <t>What should you do when you're using a contraflow system?</t>
+  </si>
+  <si>
+    <t>choose an appropriate lane in good time</t>
+  </si>
+  <si>
+    <t>switch lanes to make better progress</t>
+  </si>
+  <si>
+    <t>increase speed to get through the contraflow more quickly</t>
+  </si>
+  <si>
+    <t>follow other motorists closely to avoid long queues</t>
+  </si>
+  <si>
+    <t>You're driving along a country road, and see this sign. What should you do after dealing safely with this hazard?</t>
+  </si>
+  <si>
+    <t>test your brakes</t>
+  </si>
+  <si>
+    <t>accelerate quickly</t>
+  </si>
+  <si>
+    <t>check tyre pressure</t>
   </si>
 </sst>
 </file>
@@ -654,20 +953,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940969F2-9DE7-454B-BB9A-FC7D551AFE74}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
-    <col min="4" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -696,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>LOWER(CONCATENATE(LEFT(B2,3),RIGHT("0000"&amp;ROW(B2),4)))</f>
         <v>ale0002</v>
@@ -723,9 +1022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A33" si="0">LOWER(CONCATENATE(LEFT(B3,3),RIGHT("0000"&amp;ROW(B3),4)))</f>
+        <f t="shared" ref="A3:A34" si="0">LOWER(CONCATENATE(LEFT(B3,3),RIGHT("0000"&amp;ROW(B3),4)))</f>
         <v>ale0003</v>
       </c>
       <c r="B3" t="s">
@@ -750,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>ale0004</v>
@@ -777,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>ale0005</v>
@@ -804,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>ale0006</v>
@@ -831,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>ale0007</v>
@@ -858,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>ale0008</v>
@@ -885,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>ale0009</v>
@@ -912,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>ale0010</v>
@@ -939,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>ale0011</v>
@@ -966,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>ale0012</v>
@@ -993,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>ale0013</v>
@@ -1020,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>ale0014</v>
@@ -1047,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>ale0015</v>
@@ -1074,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>ale0016</v>
@@ -1101,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>ale0017</v>
@@ -1126,6 +1425,546 @@
       </c>
       <c r="I17" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0018</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0022</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0024</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0025</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0026</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0027</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B28,3),RIGHT("0000"&amp;ROW(B28),4)))</f>
+        <v>saf0028</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0029</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0030</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0031</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0032</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0033</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>saf0034</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" ref="A35:A46" si="1">LOWER(CONCATENATE(LEFT(B35,3),RIGHT("0000"&amp;ROW(B35),4)))</f>
+        <v>saf0035</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>saf0036</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B37,3),RIGHT("0000"&amp;ROW(B37),4)))</f>
+        <v>saf0037</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam Harris\Documents\GitHub\drivingtheorywebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1765A2-7EEC-4413-92A8-114C4BEACBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BDF248-3AB6-4C13-A2A5-5AD2EEBC71CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2595" windowWidth="20730" windowHeight="11040" xr2:uid="{B4180E7B-239D-49A3-A60C-3051093EB6BC}"/>
   </bookViews>
@@ -475,9 +475,6 @@
     <t>Driving on an open road in dry weather, what distance should you keep from the vehicle in front of you?</t>
   </si>
   <si>
-    <t>2 second time hap</t>
-  </si>
-  <si>
     <t>4 second time gap</t>
   </si>
   <si>
@@ -602,6 +599,9 @@
   </si>
   <si>
     <t>check tyre pressure</t>
+  </si>
+  <si>
+    <t>2 second time gap</t>
   </si>
 </sst>
 </file>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940969F2-9DE7-454B-BB9A-FC7D551AFE74}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,16 +1736,16 @@
         <v>146</v>
       </c>
       <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
         <v>147</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>148</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>149</v>
-      </c>
-      <c r="G29" t="s">
-        <v>150</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1760,19 +1760,19 @@
         <v>90</v>
       </c>
       <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
         <v>151</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>152</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>153</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>154</v>
-      </c>
-      <c r="G30" t="s">
-        <v>155</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1787,19 +1787,19 @@
         <v>90</v>
       </c>
       <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
         <v>156</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>157</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>158</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>159</v>
-      </c>
-      <c r="G31" t="s">
-        <v>160</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1814,19 +1814,19 @@
         <v>90</v>
       </c>
       <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" t="s">
         <v>161</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>162</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>163</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>164</v>
-      </c>
-      <c r="G32" t="s">
-        <v>165</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1841,19 +1841,19 @@
         <v>90</v>
       </c>
       <c r="C33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" t="s">
         <v>166</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>167</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>168</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>169</v>
-      </c>
-      <c r="G33" t="s">
-        <v>170</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1868,19 +1868,19 @@
         <v>90</v>
       </c>
       <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
         <v>171</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>172</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>173</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>174</v>
-      </c>
-      <c r="G34" t="s">
-        <v>175</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1888,26 +1888,26 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" ref="A35:A46" si="1">LOWER(CONCATENATE(LEFT(B35,3),RIGHT("0000"&amp;ROW(B35),4)))</f>
+        <f t="shared" ref="A35:A36" si="1">LOWER(CONCATENATE(LEFT(B35,3),RIGHT("0000"&amp;ROW(B35),4)))</f>
         <v>saf0035</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
       </c>
       <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" t="s">
         <v>176</v>
       </c>
-      <c r="D35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>177</v>
-      </c>
-      <c r="G35" t="s">
-        <v>178</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         <v>90</v>
       </c>
       <c r="C36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" t="s">
         <v>181</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>182</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>183</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>184</v>
-      </c>
-      <c r="G36" t="s">
-        <v>185</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1949,19 +1949,19 @@
         <v>90</v>
       </c>
       <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
         <v>186</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>187</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" t="s">
         <v>188</v>
-      </c>
-      <c r="F37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" t="s">
-        <v>189</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
